--- a/Code/Results/Cases/Case_0_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_252/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.887307177972423</v>
+        <v>5.824850660931335</v>
       </c>
       <c r="D2">
-        <v>3.609872230397575</v>
+        <v>6.074095176849792</v>
       </c>
       <c r="E2">
-        <v>9.23696259298114</v>
+        <v>12.40051032086643</v>
       </c>
       <c r="F2">
-        <v>40.48385202745003</v>
+        <v>48.03090014599303</v>
       </c>
       <c r="G2">
-        <v>2.097202963726323</v>
+        <v>3.731625644699826</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.88356413406682</v>
+        <v>33.93957203742939</v>
       </c>
       <c r="J2">
-        <v>6.789333395311839</v>
+        <v>10.47764372969178</v>
       </c>
       <c r="K2">
-        <v>24.31506319751633</v>
+        <v>21.64679668001352</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.962134992373254</v>
+        <v>5.839047525712984</v>
       </c>
       <c r="D3">
-        <v>3.457221773107232</v>
+        <v>6.0575534092765</v>
       </c>
       <c r="E3">
-        <v>8.856711762373342</v>
+        <v>12.36843643059752</v>
       </c>
       <c r="F3">
-        <v>39.0292139031494</v>
+        <v>47.93721475416519</v>
       </c>
       <c r="G3">
-        <v>2.110136673847895</v>
+        <v>3.736002254940679</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.97719376269433</v>
+        <v>33.90180973255217</v>
       </c>
       <c r="J3">
-        <v>6.666977721641014</v>
+        <v>10.4893810144634</v>
       </c>
       <c r="K3">
-        <v>22.57486588572774</v>
+        <v>21.26327532129198</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.007967904644491</v>
+        <v>5.848095460125783</v>
       </c>
       <c r="D4">
-        <v>3.360765079383788</v>
+        <v>6.047926270026275</v>
       </c>
       <c r="E4">
-        <v>8.622606139424088</v>
+        <v>12.35130689126168</v>
       </c>
       <c r="F4">
-        <v>38.16720331079872</v>
+        <v>47.89442809230174</v>
       </c>
       <c r="G4">
-        <v>2.118218437354531</v>
+        <v>3.738824997905463</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.4457121716131</v>
+        <v>33.88886290587809</v>
       </c>
       <c r="J4">
-        <v>6.596568533334755</v>
+        <v>10.49852316796066</v>
       </c>
       <c r="K4">
-        <v>21.47429199306499</v>
+        <v>21.03009222319272</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.02664979523889</v>
+        <v>5.851866447008917</v>
       </c>
       <c r="D5">
-        <v>3.320813732552738</v>
+        <v>6.044139194146917</v>
       </c>
       <c r="E5">
-        <v>8.527134084094468</v>
+        <v>12.34497530149623</v>
       </c>
       <c r="F5">
-        <v>37.82375442581823</v>
+        <v>47.88069105763327</v>
       </c>
       <c r="G5">
-        <v>2.121551233231336</v>
+        <v>3.7400095004851</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.23533979696904</v>
+        <v>33.88615270217656</v>
       </c>
       <c r="J5">
-        <v>6.569029192540503</v>
+        <v>10.50273439384826</v>
       </c>
       <c r="K5">
-        <v>21.05748522698379</v>
+        <v>20.93577792114452</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.029753087058737</v>
+        <v>5.85249770168625</v>
       </c>
       <c r="D6">
-        <v>3.314142290193468</v>
+        <v>6.043518654295088</v>
       </c>
       <c r="E6">
-        <v>8.511279537007379</v>
+        <v>12.34396324234868</v>
       </c>
       <c r="F6">
-        <v>37.7671981202517</v>
+        <v>47.87863315820938</v>
       </c>
       <c r="G6">
-        <v>2.122107134632488</v>
+        <v>3.740208256734127</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.20078040022651</v>
+        <v>33.88585732725387</v>
       </c>
       <c r="J6">
-        <v>6.564524988866779</v>
+        <v>10.50346297121026</v>
       </c>
       <c r="K6">
-        <v>20.98771439582924</v>
+        <v>20.92016380457008</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.008219795438403</v>
+        <v>5.848145976482455</v>
       </c>
       <c r="D7">
-        <v>3.360228830093749</v>
+        <v>6.047874641505116</v>
       </c>
       <c r="E7">
-        <v>8.621318734580777</v>
+        <v>12.35121886910915</v>
       </c>
       <c r="F7">
-        <v>38.16253973180112</v>
+        <v>47.89422786510499</v>
       </c>
       <c r="G7">
-        <v>2.118263219878284</v>
+        <v>3.738840833807969</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.4428499749358</v>
+        <v>33.88881598022472</v>
       </c>
       <c r="J7">
-        <v>6.596192502980043</v>
+        <v>10.49857799667244</v>
       </c>
       <c r="K7">
-        <v>21.46870845263326</v>
+        <v>21.02881722044231</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.913151636517303</v>
+        <v>5.829677429572637</v>
       </c>
       <c r="D8">
-        <v>3.557827276219612</v>
+        <v>6.068283416174697</v>
       </c>
       <c r="E8">
-        <v>9.106028772392888</v>
+        <v>12.3889217322514</v>
       </c>
       <c r="F8">
-        <v>39.97581587235409</v>
+        <v>47.9955360236205</v>
       </c>
       <c r="G8">
-        <v>2.101635960076002</v>
+        <v>3.733106665819584</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.56579717759827</v>
+        <v>33.92442169039558</v>
       </c>
       <c r="J8">
-        <v>6.746145418931723</v>
+        <v>10.48128850937104</v>
       </c>
       <c r="K8">
-        <v>23.72590020379635</v>
+        <v>21.514159604631</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.724182137742277</v>
+        <v>5.796057666798779</v>
       </c>
       <c r="D9">
-        <v>3.92223881858151</v>
+        <v>6.112378023120883</v>
       </c>
       <c r="E9">
-        <v>10.0488290348315</v>
+        <v>12.48299552346637</v>
       </c>
       <c r="F9">
-        <v>43.78163496188672</v>
+        <v>48.31124546402459</v>
       </c>
       <c r="G9">
-        <v>2.069935564201388</v>
+        <v>3.722930483941101</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.97153627646501</v>
+        <v>34.07578517364097</v>
       </c>
       <c r="J9">
-        <v>7.079276113384668</v>
+        <v>10.46277959495353</v>
       </c>
       <c r="K9">
-        <v>27.78605150486115</v>
+        <v>22.47845036753195</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.581164092588005</v>
+        <v>5.772899557118504</v>
       </c>
       <c r="D10">
-        <v>4.174548101639952</v>
+        <v>6.147082441097069</v>
       </c>
       <c r="E10">
-        <v>10.73493343960789</v>
+        <v>12.5640784427676</v>
       </c>
       <c r="F10">
-        <v>46.74046381007439</v>
+        <v>48.61444520773555</v>
       </c>
       <c r="G10">
-        <v>2.046864025228663</v>
+        <v>3.716096286895096</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.87351024501319</v>
+        <v>34.23694853599027</v>
       </c>
       <c r="J10">
-        <v>7.350500299190039</v>
+        <v>10.45861507979384</v>
       </c>
       <c r="K10">
-        <v>30.53927496841265</v>
+        <v>23.18705276476855</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.514495693672707</v>
+        <v>5.762690537485754</v>
       </c>
       <c r="D11">
-        <v>4.285847853720336</v>
+        <v>6.163333329069923</v>
       </c>
       <c r="E11">
-        <v>11.0457930775698</v>
+        <v>12.60348599037301</v>
       </c>
       <c r="F11">
-        <v>48.12646577657389</v>
+        <v>48.76773869789787</v>
       </c>
       <c r="G11">
-        <v>2.036326660367493</v>
+        <v>3.71312472908655</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.77161522205611</v>
+        <v>34.32111313541599</v>
       </c>
       <c r="J11">
-        <v>7.480376753967293</v>
+        <v>10.45877693659414</v>
       </c>
       <c r="K11">
-        <v>31.74699590955016</v>
+        <v>23.50792395778221</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.488949769897689</v>
+        <v>5.758870813279369</v>
       </c>
       <c r="D12">
-        <v>4.327492767685498</v>
+        <v>6.169550473509925</v>
       </c>
       <c r="E12">
-        <v>11.16338101579805</v>
+        <v>12.61876388246456</v>
       </c>
       <c r="F12">
-        <v>48.65765811101186</v>
+        <v>48.82798025290928</v>
       </c>
       <c r="G12">
-        <v>2.032321517881315</v>
+        <v>3.712019076801348</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.11686823763498</v>
+        <v>34.35453988607131</v>
       </c>
       <c r="J12">
-        <v>7.530569451729543</v>
+        <v>10.45913430943497</v>
       </c>
       <c r="K12">
-        <v>32.19839586744071</v>
+        <v>23.62909697917176</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.494466096954356</v>
+        <v>5.759691413979666</v>
       </c>
       <c r="D13">
-        <v>4.318546061529128</v>
+        <v>6.168208739914682</v>
       </c>
       <c r="E13">
-        <v>11.13806082743481</v>
+        <v>12.61545784823889</v>
       </c>
       <c r="F13">
-        <v>48.54296261222954</v>
+        <v>48.8149089529546</v>
       </c>
       <c r="G13">
-        <v>2.033184914862946</v>
+        <v>3.71225632875781</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.04227402434876</v>
+        <v>34.34727176327189</v>
       </c>
       <c r="J13">
-        <v>7.519713159782956</v>
+        <v>10.45904416983584</v>
       </c>
       <c r="K13">
-        <v>32.10143418052175</v>
+        <v>23.60301693052246</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.512400460653395</v>
+        <v>5.762375363946768</v>
       </c>
       <c r="D14">
-        <v>4.289284048441917</v>
+        <v>6.163843568483684</v>
       </c>
       <c r="E14">
-        <v>11.05546924623156</v>
+        <v>12.60473584029988</v>
       </c>
       <c r="F14">
-        <v>48.17003604905459</v>
+        <v>48.77265097539746</v>
       </c>
       <c r="G14">
-        <v>2.035997508752307</v>
+        <v>3.713033374146864</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.79991303465228</v>
+        <v>34.32383203794422</v>
       </c>
       <c r="J14">
-        <v>7.48448536473404</v>
+        <v>10.45880040224637</v>
       </c>
       <c r="K14">
-        <v>31.78424874736143</v>
+        <v>23.5179003048381</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.523344478802085</v>
+        <v>5.764025360117452</v>
       </c>
       <c r="D15">
-        <v>4.271294932257129</v>
+        <v>6.161177915414519</v>
       </c>
       <c r="E15">
-        <v>11.00486501390876</v>
+        <v>12.59821431160653</v>
       </c>
       <c r="F15">
-        <v>47.9424548394502</v>
+        <v>48.74705171406239</v>
       </c>
       <c r="G15">
-        <v>2.037718080061242</v>
+        <v>3.713511886843476</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.65214698104176</v>
+        <v>34.3096769056159</v>
       </c>
       <c r="J15">
-        <v>7.463041612192968</v>
+        <v>10.45868965516057</v>
       </c>
       <c r="K15">
-        <v>31.58920623523446</v>
+        <v>23.46571690928229</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.585483020961611</v>
+        <v>5.773573241089763</v>
       </c>
       <c r="D16">
-        <v>4.167204101935736</v>
+        <v>6.146029448714771</v>
       </c>
       <c r="E16">
-        <v>10.71459651076177</v>
+        <v>12.56155318609782</v>
       </c>
       <c r="F16">
-        <v>46.65073639324363</v>
+        <v>48.60473496758548</v>
       </c>
       <c r="G16">
-        <v>2.047551098930095</v>
+        <v>3.716293237190019</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.81551267627022</v>
+        <v>34.23166616702312</v>
       </c>
       <c r="J16">
-        <v>7.342149497751057</v>
+        <v>10.4586459164898</v>
       </c>
       <c r="K16">
-        <v>30.45948801901756</v>
+        <v>23.1660428497029</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.623145293494201</v>
+        <v>5.77951353329108</v>
       </c>
       <c r="D17">
-        <v>4.102453493952809</v>
+        <v>6.136852713050656</v>
       </c>
       <c r="E17">
-        <v>10.53623183884694</v>
+        <v>12.53970358740651</v>
       </c>
       <c r="F17">
-        <v>45.86891600944361</v>
+        <v>48.52135315942053</v>
       </c>
       <c r="G17">
-        <v>2.053566732066723</v>
+        <v>3.718034585921711</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.31095513951532</v>
+        <v>34.18658556965005</v>
       </c>
       <c r="J17">
-        <v>7.269699598524153</v>
+        <v>10.45914607380202</v>
       </c>
       <c r="K17">
-        <v>29.75531427705194</v>
+        <v>22.9817362031124</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.644660892970339</v>
+        <v>5.782960927920538</v>
       </c>
       <c r="D18">
-        <v>4.064883035321676</v>
+        <v>6.131618345939846</v>
       </c>
       <c r="E18">
-        <v>10.43351816466832</v>
+        <v>12.52737419746161</v>
       </c>
       <c r="F18">
-        <v>45.42295397774949</v>
+        <v>48.47484179531671</v>
       </c>
       <c r="G18">
-        <v>2.057023416353377</v>
+        <v>3.719049100245628</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.02380984798263</v>
+        <v>34.1616781676568</v>
       </c>
       <c r="J18">
-        <v>7.228634198846144</v>
+        <v>10.45962728689047</v>
       </c>
       <c r="K18">
-        <v>29.34604791914693</v>
+        <v>22.87559595139098</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.651922427916633</v>
+        <v>5.78413344771089</v>
       </c>
       <c r="D19">
-        <v>4.052106233887265</v>
+        <v>6.129853712887806</v>
       </c>
       <c r="E19">
-        <v>10.39871891005499</v>
+        <v>12.52324076509871</v>
       </c>
       <c r="F19">
-        <v>45.27258310779136</v>
+        <v>48.45934293202622</v>
       </c>
       <c r="G19">
-        <v>2.058193461462127</v>
+        <v>3.71939482347063</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.92710235667377</v>
+        <v>34.15342054367257</v>
       </c>
       <c r="J19">
-        <v>7.214832127915225</v>
+        <v>10.45982344332568</v>
       </c>
       <c r="K19">
-        <v>29.20673451777462</v>
+        <v>22.83963982542237</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.619151732108308</v>
+        <v>5.778878006726749</v>
       </c>
       <c r="D20">
-        <v>4.109380251768956</v>
+        <v>6.137825078512553</v>
       </c>
       <c r="E20">
-        <v>10.55523152649482</v>
+        <v>12.54200494417301</v>
       </c>
       <c r="F20">
-        <v>45.95175344422332</v>
+        <v>48.53007957959692</v>
       </c>
       <c r="G20">
-        <v>2.052926763686129</v>
+        <v>3.717847878496103</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.36434644357081</v>
+        <v>34.1912787543334</v>
       </c>
       <c r="J20">
-        <v>7.277348802187129</v>
+        <v>10.45907279775493</v>
       </c>
       <c r="K20">
-        <v>29.8307106883842</v>
+        <v>23.00137051572551</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.507141447832414</v>
+        <v>5.761585773641021</v>
       </c>
       <c r="D21">
-        <v>4.297892609758346</v>
+        <v>6.16512403477737</v>
       </c>
       <c r="E21">
-        <v>11.07973127502999</v>
+        <v>12.60787557964511</v>
       </c>
       <c r="F21">
-        <v>48.27939574262057</v>
+        <v>48.78500381636373</v>
       </c>
       <c r="G21">
-        <v>2.035171863040227</v>
+        <v>3.712804605919082</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.87095619005383</v>
+        <v>34.33067469070225</v>
       </c>
       <c r="J21">
-        <v>7.49480447324222</v>
+        <v>10.45886396474856</v>
       </c>
       <c r="K21">
-        <v>31.87757061891561</v>
+        <v>23.54291112597103</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.432147243731186</v>
+        <v>5.750553357947067</v>
       </c>
       <c r="D22">
-        <v>4.41817551031356</v>
+        <v>6.183332763145319</v>
       </c>
       <c r="E22">
-        <v>11.42182715471446</v>
+        <v>12.65299181048327</v>
       </c>
       <c r="F22">
-        <v>49.83804885136208</v>
+        <v>48.96438112969809</v>
       </c>
       <c r="G22">
-        <v>2.02347610614975</v>
+        <v>3.709622786033388</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.88599207416567</v>
+        <v>34.43084023708508</v>
       </c>
       <c r="J22">
-        <v>7.64286827655756</v>
+        <v>10.46045334934112</v>
       </c>
       <c r="K22">
-        <v>33.1809906255225</v>
+        <v>23.89484043690094</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.472362387648908</v>
+        <v>5.756417153505931</v>
       </c>
       <c r="D23">
-        <v>4.354244168088775</v>
+        <v>6.173581944489282</v>
       </c>
       <c r="E23">
-        <v>11.23928111802246</v>
+        <v>12.62872604078108</v>
       </c>
       <c r="F23">
-        <v>49.00249344565823</v>
+        <v>48.86748234820718</v>
       </c>
       <c r="G23">
-        <v>2.029730078992702</v>
+        <v>3.71131057516683</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.34128993313438</v>
+        <v>34.37655307507089</v>
       </c>
       <c r="J23">
-        <v>7.563269665819069</v>
+        <v>10.45944705599999</v>
       </c>
       <c r="K23">
-        <v>32.4882867565607</v>
+        <v>23.70723075568954</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.620957642743898</v>
+        <v>5.779165227814099</v>
       </c>
       <c r="D24">
-        <v>4.106249737254889</v>
+        <v>6.137385342690449</v>
       </c>
       <c r="E24">
-        <v>10.54664229893975</v>
+        <v>12.54096377684514</v>
       </c>
       <c r="F24">
-        <v>45.91429172723179</v>
+        <v>48.52612992228211</v>
       </c>
       <c r="G24">
-        <v>2.053216098300796</v>
+        <v>3.717932247206317</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.34019913458944</v>
+        <v>34.18915381916985</v>
       </c>
       <c r="J24">
-        <v>7.273888774381961</v>
+        <v>10.4591053226602</v>
       </c>
       <c r="K24">
-        <v>29.7966377977497</v>
+        <v>22.99249439405969</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.775826611773879</v>
+        <v>5.804878919575198</v>
       </c>
       <c r="D25">
-        <v>3.826294766109464</v>
+        <v>6.100031056951727</v>
       </c>
       <c r="E25">
-        <v>9.794888867362358</v>
+        <v>12.45541982499531</v>
       </c>
       <c r="F25">
-        <v>42.72459112983493</v>
+        <v>48.21330123817023</v>
       </c>
       <c r="G25">
-        <v>2.078446121793527</v>
+        <v>3.72556996612258</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.29805417222513</v>
+        <v>34.02607215845769</v>
       </c>
       <c r="J25">
-        <v>6.984722224730623</v>
+        <v>10.46613303785358</v>
       </c>
       <c r="K25">
-        <v>26.72957326065126</v>
+        <v>22.21702909912886</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_252/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.824850660931335</v>
+        <v>3.887307177972421</v>
       </c>
       <c r="D2">
-        <v>6.074095176849792</v>
+        <v>3.609872230397475</v>
       </c>
       <c r="E2">
-        <v>12.40051032086643</v>
+        <v>9.236962592981053</v>
       </c>
       <c r="F2">
-        <v>48.03090014599303</v>
+        <v>40.48385202745021</v>
       </c>
       <c r="G2">
-        <v>3.731625644699826</v>
+        <v>2.097202963726063</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.93957203742939</v>
+        <v>27.88356413406699</v>
       </c>
       <c r="J2">
-        <v>10.47764372969178</v>
+        <v>6.7893333953118</v>
       </c>
       <c r="K2">
-        <v>21.64679668001352</v>
+        <v>24.31506319751627</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.839047525712984</v>
+        <v>3.962134992373116</v>
       </c>
       <c r="D3">
-        <v>6.0575534092765</v>
+        <v>3.457221773107092</v>
       </c>
       <c r="E3">
-        <v>12.36843643059752</v>
+        <v>8.856711762373257</v>
       </c>
       <c r="F3">
-        <v>47.93721475416519</v>
+        <v>39.02921390314929</v>
       </c>
       <c r="G3">
-        <v>3.736002254940679</v>
+        <v>2.110136673847495</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.90180973255217</v>
+        <v>26.97719376269428</v>
       </c>
       <c r="J3">
-        <v>10.4893810144634</v>
+        <v>6.666977721640967</v>
       </c>
       <c r="K3">
-        <v>21.26327532129198</v>
+        <v>22.57486588572775</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.848095460125783</v>
+        <v>4.007967904644354</v>
       </c>
       <c r="D4">
-        <v>6.047926270026275</v>
+        <v>3.360765079383788</v>
       </c>
       <c r="E4">
-        <v>12.35130689126168</v>
+        <v>8.622606139424075</v>
       </c>
       <c r="F4">
-        <v>47.89442809230174</v>
+        <v>38.16720331079863</v>
       </c>
       <c r="G4">
-        <v>3.738824997905463</v>
+        <v>2.118218437354531</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.88886290587809</v>
+        <v>26.4457121716131</v>
       </c>
       <c r="J4">
-        <v>10.49852316796066</v>
+        <v>6.59656853333475</v>
       </c>
       <c r="K4">
-        <v>21.03009222319272</v>
+        <v>21.47429199306499</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.851866447008917</v>
+        <v>4.02664979523862</v>
       </c>
       <c r="D5">
-        <v>6.044139194146917</v>
+        <v>3.320813732552842</v>
       </c>
       <c r="E5">
-        <v>12.34497530149623</v>
+        <v>8.527134084094538</v>
       </c>
       <c r="F5">
-        <v>47.88069105763327</v>
+        <v>37.82375442581812</v>
       </c>
       <c r="G5">
-        <v>3.7400095004851</v>
+        <v>2.121551233231469</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.88615270217656</v>
+        <v>26.23533979696894</v>
       </c>
       <c r="J5">
-        <v>10.50273439384826</v>
+        <v>6.569029192540486</v>
       </c>
       <c r="K5">
-        <v>20.93577792114452</v>
+        <v>21.05748522698379</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.85249770168625</v>
+        <v>4.029753087059005</v>
       </c>
       <c r="D6">
-        <v>6.043518654295088</v>
+        <v>3.314142290193326</v>
       </c>
       <c r="E6">
-        <v>12.34396324234868</v>
+        <v>8.511279537007386</v>
       </c>
       <c r="F6">
-        <v>47.87863315820938</v>
+        <v>37.76719812025144</v>
       </c>
       <c r="G6">
-        <v>3.740208256734127</v>
+        <v>2.122107134632486</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.88585732725387</v>
+        <v>26.20078040022636</v>
       </c>
       <c r="J6">
-        <v>10.50346297121026</v>
+        <v>6.564524988866831</v>
       </c>
       <c r="K6">
-        <v>20.92016380457008</v>
+        <v>20.98771439582924</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.848145976482455</v>
+        <v>4.008219795438674</v>
       </c>
       <c r="D7">
-        <v>6.047874641505116</v>
+        <v>3.360228830093642</v>
       </c>
       <c r="E7">
-        <v>12.35121886910915</v>
+        <v>8.621318734580756</v>
       </c>
       <c r="F7">
-        <v>47.89422786510499</v>
+        <v>38.1625397318011</v>
       </c>
       <c r="G7">
-        <v>3.738840833807969</v>
+        <v>2.118263219878156</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.88881598022472</v>
+        <v>26.44284997493583</v>
       </c>
       <c r="J7">
-        <v>10.49857799667244</v>
+        <v>6.596192502980049</v>
       </c>
       <c r="K7">
-        <v>21.02881722044231</v>
+        <v>21.46870845263325</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.829677429572637</v>
+        <v>3.913151636517573</v>
       </c>
       <c r="D8">
-        <v>6.068283416174697</v>
+        <v>3.557827276219585</v>
       </c>
       <c r="E8">
-        <v>12.3889217322514</v>
+        <v>9.106028772392829</v>
       </c>
       <c r="F8">
-        <v>47.9955360236205</v>
+        <v>39.97581587235405</v>
       </c>
       <c r="G8">
-        <v>3.733106665819584</v>
+        <v>2.101635960075873</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.92442169039558</v>
+        <v>27.56579717759827</v>
       </c>
       <c r="J8">
-        <v>10.48128850937104</v>
+        <v>6.746145418931677</v>
       </c>
       <c r="K8">
-        <v>21.514159604631</v>
+        <v>23.72590020379633</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.796057666798779</v>
+        <v>3.724182137742142</v>
       </c>
       <c r="D9">
-        <v>6.112378023120883</v>
+        <v>3.922238818581502</v>
       </c>
       <c r="E9">
-        <v>12.48299552346637</v>
+        <v>10.04882903483148</v>
       </c>
       <c r="F9">
-        <v>48.31124546402459</v>
+        <v>43.78163496188682</v>
       </c>
       <c r="G9">
-        <v>3.722930483941101</v>
+        <v>2.069935564201254</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.07578517364097</v>
+        <v>29.97153627646507</v>
       </c>
       <c r="J9">
-        <v>10.46277959495353</v>
+        <v>7.079276113384644</v>
       </c>
       <c r="K9">
-        <v>22.47845036753195</v>
+        <v>27.78605150486111</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.772899557118504</v>
+        <v>3.581164092587605</v>
       </c>
       <c r="D10">
-        <v>6.147082441097069</v>
+        <v>4.174548101639952</v>
       </c>
       <c r="E10">
-        <v>12.5640784427676</v>
+        <v>10.73493343960789</v>
       </c>
       <c r="F10">
-        <v>48.61444520773555</v>
+        <v>46.74046381007432</v>
       </c>
       <c r="G10">
-        <v>3.716096286895096</v>
+        <v>2.046864025228538</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.23694853599027</v>
+        <v>31.87351024501315</v>
       </c>
       <c r="J10">
-        <v>10.45861507979384</v>
+        <v>7.350500299190027</v>
       </c>
       <c r="K10">
-        <v>23.18705276476855</v>
+        <v>30.53927496841274</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.762690537485754</v>
+        <v>3.51449569367284</v>
       </c>
       <c r="D11">
-        <v>6.163333329069923</v>
+        <v>4.285847853720267</v>
       </c>
       <c r="E11">
-        <v>12.60348599037301</v>
+        <v>11.04579307756978</v>
       </c>
       <c r="F11">
-        <v>48.76773869789787</v>
+        <v>48.12646577657389</v>
       </c>
       <c r="G11">
-        <v>3.71312472908655</v>
+        <v>2.036326660367358</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.32111313541599</v>
+        <v>32.77161522205611</v>
       </c>
       <c r="J11">
-        <v>10.45877693659414</v>
+        <v>7.48037675396729</v>
       </c>
       <c r="K11">
-        <v>23.50792395778221</v>
+        <v>31.74699590955021</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.758870813279369</v>
+        <v>3.488949769897554</v>
       </c>
       <c r="D12">
-        <v>6.169550473509925</v>
+        <v>4.327492767685532</v>
       </c>
       <c r="E12">
-        <v>12.61876388246456</v>
+        <v>11.16338101579805</v>
       </c>
       <c r="F12">
-        <v>48.82798025290928</v>
+        <v>48.65765811101184</v>
       </c>
       <c r="G12">
-        <v>3.712019076801348</v>
+        <v>2.03232151788145</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.35453988607131</v>
+        <v>33.11686823763495</v>
       </c>
       <c r="J12">
-        <v>10.45913430943497</v>
+        <v>7.530569451729541</v>
       </c>
       <c r="K12">
-        <v>23.62909697917176</v>
+        <v>32.19839586744075</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.759691413979666</v>
+        <v>3.494466096954481</v>
       </c>
       <c r="D13">
-        <v>6.168208739914682</v>
+        <v>4.318546061529078</v>
       </c>
       <c r="E13">
-        <v>12.61545784823889</v>
+        <v>11.13806082743482</v>
       </c>
       <c r="F13">
-        <v>48.8149089529546</v>
+        <v>48.54296261222969</v>
       </c>
       <c r="G13">
-        <v>3.71225632875781</v>
+        <v>2.033184914862944</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.34727176327189</v>
+        <v>33.04227402434886</v>
       </c>
       <c r="J13">
-        <v>10.45904416983584</v>
+        <v>7.519713159782921</v>
       </c>
       <c r="K13">
-        <v>23.60301693052246</v>
+        <v>32.10143418052185</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.762375363946768</v>
+        <v>3.512400460653394</v>
       </c>
       <c r="D14">
-        <v>6.163843568483684</v>
+        <v>4.289284048441886</v>
       </c>
       <c r="E14">
-        <v>12.60473584029988</v>
+        <v>11.05546924623155</v>
       </c>
       <c r="F14">
-        <v>48.77265097539746</v>
+        <v>48.17003604905457</v>
       </c>
       <c r="G14">
-        <v>3.713033374146864</v>
+        <v>2.035997508752437</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.32383203794422</v>
+        <v>32.79991303465228</v>
       </c>
       <c r="J14">
-        <v>10.45880040224637</v>
+        <v>7.484485364734067</v>
       </c>
       <c r="K14">
-        <v>23.5179003048381</v>
+        <v>31.78424874736141</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.764025360117452</v>
+        <v>3.523344478802094</v>
       </c>
       <c r="D15">
-        <v>6.161177915414519</v>
+        <v>4.271294932257161</v>
       </c>
       <c r="E15">
-        <v>12.59821431160653</v>
+        <v>11.00486501390875</v>
       </c>
       <c r="F15">
-        <v>48.74705171406239</v>
+        <v>47.94245483945014</v>
       </c>
       <c r="G15">
-        <v>3.713511886843476</v>
+        <v>2.037718080061512</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.3096769056159</v>
+        <v>32.65214698104172</v>
       </c>
       <c r="J15">
-        <v>10.45868965516057</v>
+        <v>7.463041612192955</v>
       </c>
       <c r="K15">
-        <v>23.46571690928229</v>
+        <v>31.58920623523444</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.773573241089763</v>
+        <v>3.585483020961484</v>
       </c>
       <c r="D16">
-        <v>6.146029448714771</v>
+        <v>4.16720410193564</v>
       </c>
       <c r="E16">
-        <v>12.56155318609782</v>
+        <v>10.7145965107617</v>
       </c>
       <c r="F16">
-        <v>48.60473496758548</v>
+        <v>46.65073639324361</v>
       </c>
       <c r="G16">
-        <v>3.716293237190019</v>
+        <v>2.047551098929965</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.23166616702312</v>
+        <v>31.81551267627023</v>
       </c>
       <c r="J16">
-        <v>10.4586459164898</v>
+        <v>7.342149497751052</v>
       </c>
       <c r="K16">
-        <v>23.1660428497029</v>
+        <v>30.45948801901746</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.77951353329108</v>
+        <v>3.623145293494198</v>
       </c>
       <c r="D17">
-        <v>6.136852713050656</v>
+        <v>4.102453493952738</v>
       </c>
       <c r="E17">
-        <v>12.53970358740651</v>
+        <v>10.53623183884689</v>
       </c>
       <c r="F17">
-        <v>48.52135315942053</v>
+        <v>45.86891600944363</v>
       </c>
       <c r="G17">
-        <v>3.718034585921711</v>
+        <v>2.053566732066723</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.18658556965005</v>
+        <v>31.31095513951535</v>
       </c>
       <c r="J17">
-        <v>10.45914607380202</v>
+        <v>7.269699598524094</v>
       </c>
       <c r="K17">
-        <v>22.9817362031124</v>
+        <v>29.75531427705205</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.782960927920538</v>
+        <v>3.644660892970347</v>
       </c>
       <c r="D18">
-        <v>6.131618345939846</v>
+        <v>4.064883035321664</v>
       </c>
       <c r="E18">
-        <v>12.52737419746161</v>
+        <v>10.43351816466831</v>
       </c>
       <c r="F18">
-        <v>48.47484179531671</v>
+        <v>45.42295397774939</v>
       </c>
       <c r="G18">
-        <v>3.719049100245628</v>
+        <v>2.057023416353118</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.1616781676568</v>
+        <v>31.02380984798257</v>
       </c>
       <c r="J18">
-        <v>10.45962728689047</v>
+        <v>7.228634198846154</v>
       </c>
       <c r="K18">
-        <v>22.87559595139098</v>
+        <v>29.34604791914694</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.78413344771089</v>
+        <v>3.651922427916766</v>
       </c>
       <c r="D19">
-        <v>6.129853712887806</v>
+        <v>4.052106233887359</v>
       </c>
       <c r="E19">
-        <v>12.52324076509871</v>
+        <v>10.39871891005502</v>
       </c>
       <c r="F19">
-        <v>48.45934293202622</v>
+        <v>45.27258310779137</v>
       </c>
       <c r="G19">
-        <v>3.71939482347063</v>
+        <v>2.058193461462125</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.15342054367257</v>
+        <v>30.92710235667379</v>
       </c>
       <c r="J19">
-        <v>10.45982344332568</v>
+        <v>7.214832127915248</v>
       </c>
       <c r="K19">
-        <v>22.83963982542237</v>
+        <v>29.20673451777462</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.778878006726749</v>
+        <v>3.619151732108302</v>
       </c>
       <c r="D20">
-        <v>6.137825078512553</v>
+        <v>4.109380251768901</v>
       </c>
       <c r="E20">
-        <v>12.54200494417301</v>
+        <v>10.55523152649482</v>
       </c>
       <c r="F20">
-        <v>48.53007957959692</v>
+        <v>45.95175344422324</v>
       </c>
       <c r="G20">
-        <v>3.717847878496103</v>
+        <v>2.052926763686257</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.1912787543334</v>
+        <v>31.36434644357076</v>
       </c>
       <c r="J20">
-        <v>10.45907279775493</v>
+        <v>7.277348802187136</v>
       </c>
       <c r="K20">
-        <v>23.00137051572551</v>
+        <v>29.83071068838425</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.761585773641021</v>
+        <v>3.507141447832408</v>
       </c>
       <c r="D21">
-        <v>6.16512403477737</v>
+        <v>4.297892609758292</v>
       </c>
       <c r="E21">
-        <v>12.60787557964511</v>
+        <v>11.07973127502999</v>
       </c>
       <c r="F21">
-        <v>48.78500381636373</v>
+        <v>48.27939574262056</v>
       </c>
       <c r="G21">
-        <v>3.712804605919082</v>
+        <v>2.035171863040223</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.33067469070225</v>
+        <v>32.87095619005382</v>
       </c>
       <c r="J21">
-        <v>10.45886396474856</v>
+        <v>7.494804473242228</v>
       </c>
       <c r="K21">
-        <v>23.54291112597103</v>
+        <v>31.87757061891571</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.750553357947067</v>
+        <v>3.432147243731175</v>
       </c>
       <c r="D22">
-        <v>6.183332763145319</v>
+        <v>4.418175510313535</v>
       </c>
       <c r="E22">
-        <v>12.65299181048327</v>
+        <v>11.42182715471446</v>
       </c>
       <c r="F22">
-        <v>48.96438112969809</v>
+        <v>49.83804885136207</v>
       </c>
       <c r="G22">
-        <v>3.709622786033388</v>
+        <v>2.023476106150151</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.43084023708508</v>
+        <v>33.88599207416564</v>
       </c>
       <c r="J22">
-        <v>10.46045334934112</v>
+        <v>7.642868276557564</v>
       </c>
       <c r="K22">
-        <v>23.89484043690094</v>
+        <v>33.18099062552251</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.756417153505931</v>
+        <v>3.472362387648637</v>
       </c>
       <c r="D23">
-        <v>6.173581944489282</v>
+        <v>4.354244168088756</v>
       </c>
       <c r="E23">
-        <v>12.62872604078108</v>
+        <v>11.23928111802246</v>
       </c>
       <c r="F23">
-        <v>48.86748234820718</v>
+        <v>49.0024934456583</v>
       </c>
       <c r="G23">
-        <v>3.71131057516683</v>
+        <v>2.029730078992841</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.37655307507089</v>
+        <v>33.34128993313443</v>
       </c>
       <c r="J23">
-        <v>10.45944705599999</v>
+        <v>7.563269665819068</v>
       </c>
       <c r="K23">
-        <v>23.70723075568954</v>
+        <v>32.48828675656075</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.779165227814099</v>
+        <v>3.620957642743771</v>
       </c>
       <c r="D24">
-        <v>6.137385342690449</v>
+        <v>4.106249737254868</v>
       </c>
       <c r="E24">
-        <v>12.54096377684514</v>
+        <v>10.54664229893976</v>
       </c>
       <c r="F24">
-        <v>48.52612992228211</v>
+        <v>45.91429172723171</v>
       </c>
       <c r="G24">
-        <v>3.717932247206317</v>
+        <v>2.053216098300931</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.18915381916985</v>
+        <v>31.3401991345894</v>
       </c>
       <c r="J24">
-        <v>10.4591053226602</v>
+        <v>7.273888774381968</v>
       </c>
       <c r="K24">
-        <v>22.99249439405969</v>
+        <v>29.79663779774969</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.804878919575198</v>
+        <v>3.775826611774017</v>
       </c>
       <c r="D25">
-        <v>6.100031056951727</v>
+        <v>3.826294766109423</v>
       </c>
       <c r="E25">
-        <v>12.45541982499531</v>
+        <v>9.794888867362332</v>
       </c>
       <c r="F25">
-        <v>48.21330123817023</v>
+        <v>42.72459112983483</v>
       </c>
       <c r="G25">
-        <v>3.72556996612258</v>
+        <v>2.078446121793796</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.02607215845769</v>
+        <v>29.29805417222504</v>
       </c>
       <c r="J25">
-        <v>10.46613303785358</v>
+        <v>6.984722224730591</v>
       </c>
       <c r="K25">
-        <v>22.21702909912886</v>
+        <v>26.72957326065119</v>
       </c>
       <c r="L25">
         <v>0</v>
